--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HugoCD\Desktop\Proyecto excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F74B343-7FFD-4608-9EF7-94338EC41DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67920D80-2D7D-49A6-A924-8FAC6201CCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="1725" windowWidth="15300" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>apellidop</t>
   </si>
@@ -50,14 +50,58 @@
   </si>
   <si>
     <t>lugar de inf. Recuperada</t>
+  </si>
+  <si>
+    <t>Nogueda</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>arduino</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>plantas</t>
+  </si>
+  <si>
+    <t>Guadalupe</t>
+  </si>
+  <si>
+    <t>Danza</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Tania</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -85,8 +129,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +483,120 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HugoCD\Desktop\Proyecto excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67920D80-2D7D-49A6-A924-8FAC6201CCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9B0740-9290-40EF-9CE5-14D62D876DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="1725" windowWidth="15300" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,11 +447,11 @@
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,11 +479,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -532,7 +532,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -558,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -583,17 +583,20 @@
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,117 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HugoCD\Desktop\Proyecto excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9B0740-9290-40EF-9CE5-14D62D876DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11040" windowWidth="20730" xWindow="20280" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
-  <si>
-    <t>apellidop</t>
-  </si>
-  <si>
-    <t>apellidom</t>
-  </si>
-  <si>
-    <t>nombre1</t>
-  </si>
-  <si>
-    <t>nombre2</t>
-  </si>
-  <si>
-    <t>semestre</t>
-  </si>
-  <si>
-    <t>taller o curso</t>
-  </si>
-  <si>
-    <t>tipo de documento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duracion </t>
-  </si>
-  <si>
-    <t>hras. Extras</t>
-  </si>
-  <si>
-    <t>lugar de inf. Recuperada</t>
-  </si>
-  <si>
-    <t>Nogueda</t>
-  </si>
-  <si>
-    <t>Hernandez</t>
-  </si>
-  <si>
-    <t>Hugo</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>arduino</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>plantas</t>
-  </si>
-  <si>
-    <t>Guadalupe</t>
-  </si>
-  <si>
-    <t>Danza</t>
-  </si>
-  <si>
-    <t>Mendoza</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>Tania</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -127,26 +51,85 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -434,172 +417,304 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="1" width="10.7109375"/>
+    <col customWidth="1" max="6" min="6" style="1" width="13.85546875"/>
+    <col customWidth="1" max="7" min="7" style="1" width="17.28515625"/>
+    <col customWidth="1" max="9" min="9" style="1" width="11.28515625"/>
+    <col customWidth="1" max="10" min="10" style="1" width="8.85546875"/>
+    <col customWidth="1" max="11" min="11" style="1" width="24.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>apellidop</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>apellidom</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nombre1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>nombre2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>semestre</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>taller o curso</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>tipo de documento</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">duracion </t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>hras. Extras</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>lugar de inf. Recuperada</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Nogueda</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hernadez</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Hugo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>arduino</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hernandez</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nogueda</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pedro</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>plantas</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Nogueda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hernadez</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Hugo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>arduino</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Lopez</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mendoza</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tania</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Guadalupe</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Danza</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Nogueda</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hernadez</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hugo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Nogueda</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hernadez</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Hugo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
+      <c r="F7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lopez</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mendoza</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Tania</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Guadalupe</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M10" s="2"/>
+    </row>
+    <row r="9">
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="M10" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11040" windowWidth="20730" xWindow="20280" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7875" windowWidth="15300" xWindow="23280" yWindow="1050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -707,6 +707,26 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Nogueda</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hernadez</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Hugo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
       <c r="H9" s="2" t="n"/>
       <c r="I9" s="2" t="n"/>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -425,7 +425,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -654,6 +654,17 @@
       <c r="E6" t="n">
         <v>6</v>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>arduino</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -679,7 +690,17 @@
       <c r="E7" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="2" t="n"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>plantas</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -705,6 +726,17 @@
       <c r="E8" t="n">
         <v>6</v>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>arduino</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -727,8 +759,17 @@
           <t>David</t>
         </is>
       </c>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Danza</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="M10" s="2" t="n"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7875" windowWidth="15300" xWindow="23280" yWindow="1050"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -51,17 +51,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -428,14 +427,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="10.7109375"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13.85546875"/>
-    <col customWidth="1" max="7" min="7" style="1" width="17.28515625"/>
-    <col customWidth="1" max="9" min="9" style="1" width="11.28515625"/>
-    <col customWidth="1" max="10" min="10" style="1" width="8.85546875"/>
-    <col customWidth="1" max="11" min="11" style="1" width="24.5703125"/>
+    <col width="10.6640625" customWidth="1" min="2" max="2"/>
+    <col width="13.88671875" customWidth="1" min="6" max="6"/>
+    <col width="17.33203125" customWidth="1" min="7" max="7"/>
+    <col width="11.33203125" customWidth="1" min="9" max="9"/>
+    <col width="8.88671875" customWidth="1" min="10" max="10"/>
+    <col width="24.5546875" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -628,7 +627,7 @@
       <c r="I5" t="n">
         <v>2</v>
       </c>
-      <c r="K5" s="2" t="n"/>
+      <c r="K5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -759,6 +758,9 @@
           <t>David</t>
         </is>
       </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>Danza</t>
@@ -772,10 +774,33 @@
       </c>
     </row>
     <row r="10">
-      <c r="M10" s="2" t="n"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lopez</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mendoza</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Tania</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Guadalupe</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>